--- a/Lab2/Lab2_Uzduotys.xlsx
+++ b/Lab2/Lab2_Uzduotys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Java_laboratoriniai\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9CABD8-CF19-4E98-B4FA-E30FEC027F69}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCED9E-AC1E-462C-B843-0F592D76770B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studentai" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="397">
   <si>
     <t>boolean</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>pollLast()</t>
-  </si>
-  <si>
-    <t>subSet(E fromElement, boolean fromInclusive, E toElement, boolean toInclusive)</t>
   </si>
   <si>
     <t>subSet(E fromElement, E toElement)</t>
@@ -1379,16 +1376,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1397,16 +1395,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1748,9 +1745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1770,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>5</v>
@@ -1796,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
@@ -1822,10 +1819,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="13">
         <v>17</v>
@@ -1843,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1857,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="13">
         <v>17</v>
@@ -1892,10 +1889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="13">
         <v>17</v>
@@ -1913,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1927,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="13">
         <v>6</v>
@@ -1960,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="13">
         <v>17</v>
@@ -1981,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1995,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -2021,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="13">
         <v>8</v>
@@ -2042,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -2053,10 +2050,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="13">
         <v>14</v>
@@ -2074,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -2085,10 +2082,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="13">
         <v>10</v>
@@ -2111,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="13">
         <v>7</v>
@@ -2137,10 +2134,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13">
         <v>14</v>
@@ -2163,10 +2160,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="13">
         <v>11</v>
@@ -2189,10 +2186,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="13">
         <v>12</v>
@@ -2215,10 +2212,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2241,10 +2238,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="13">
         <v>7</v>
@@ -2267,10 +2264,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="13">
         <v>4</v>
@@ -2293,10 +2290,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="D19" s="13">
         <v>2</v>
@@ -2319,10 +2316,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
@@ -2345,10 +2342,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
@@ -2371,10 +2368,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="13">
         <v>14</v>
@@ -2397,10 +2394,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -2423,10 +2420,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="13">
         <v>14</v>
@@ -2449,10 +2446,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="13">
         <v>14</v>
@@ -2475,10 +2472,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="13">
         <v>14</v>
@@ -2501,10 +2498,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="13">
         <v>2</v>
@@ -2527,10 +2524,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="13">
         <v>4</v>
@@ -2553,10 +2550,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="13">
         <v>2</v>
@@ -2579,10 +2576,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="13">
         <v>6</v>
@@ -2605,10 +2602,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="13">
         <v>14</v>
@@ -2631,10 +2628,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="13">
         <v>10</v>
@@ -2657,10 +2654,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="13">
         <v>14</v>
@@ -2683,10 +2680,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="13">
         <v>12</v>
@@ -2709,10 +2706,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="13">
         <v>3</v>
@@ -2735,10 +2732,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="13">
         <v>14</v>
@@ -2761,10 +2758,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="13">
         <v>14</v>
@@ -2787,10 +2784,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="13">
         <v>10</v>
@@ -2813,10 +2810,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="13">
         <v>6</v>
@@ -2839,10 +2836,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="13">
         <v>14</v>
@@ -2865,10 +2862,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="13">
         <v>14</v>
@@ -2891,10 +2888,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="13">
         <v>8</v>
@@ -2917,10 +2914,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="13">
         <v>10</v>
@@ -2943,10 +2940,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="13">
         <v>16</v>
@@ -2969,10 +2966,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="13">
         <v>12</v>
@@ -2995,10 +2992,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="13">
         <v>14</v>
@@ -3021,10 +3018,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="13">
         <v>4</v>
@@ -3047,10 +3044,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="13">
         <v>2</v>
@@ -3073,10 +3070,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="13">
         <v>3</v>
@@ -3099,10 +3096,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="13">
         <v>6</v>
@@ -3125,10 +3122,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="13">
         <v>5</v>
@@ -3151,10 +3148,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="13">
         <v>8</v>
@@ -3177,10 +3174,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="13">
         <v>7</v>
@@ -3203,10 +3200,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" s="13">
         <v>12</v>
@@ -3229,10 +3226,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="13">
         <v>11</v>
@@ -3255,10 +3252,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="13">
         <v>14</v>
@@ -3281,10 +3278,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="D57" s="13">
         <v>12</v>
@@ -3307,10 +3304,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D58" s="13">
         <v>3</v>
@@ -3333,10 +3330,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" s="13">
         <v>6</v>
@@ -3359,10 +3356,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" s="13">
         <v>17</v>
@@ -3385,10 +3382,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D61" s="13">
         <v>11</v>
@@ -3411,10 +3408,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" s="13">
         <v>17</v>
@@ -3437,10 +3434,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63" s="13">
         <v>5</v>
@@ -3463,10 +3460,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="13">
         <v>14</v>
@@ -3489,10 +3486,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D65" s="13">
         <v>10</v>
@@ -3515,10 +3512,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66" s="13">
         <v>2</v>
@@ -3541,10 +3538,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="13">
         <v>16</v>
@@ -3567,10 +3564,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D68" s="13">
         <v>14</v>
@@ -3593,10 +3590,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="13">
         <v>8</v>
@@ -3619,10 +3616,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="13">
         <v>3</v>
@@ -3645,10 +3642,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" s="13">
         <v>14</v>
@@ -3671,10 +3668,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="13">
         <v>8</v>
@@ -3697,10 +3694,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="13">
         <v>12</v>
@@ -3723,10 +3720,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="13">
         <v>5</v>
@@ -3749,10 +3746,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D75" s="13">
         <v>8</v>
@@ -3775,10 +3772,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D76" s="13">
         <v>10</v>
@@ -3801,10 +3798,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" s="13">
         <v>6</v>
@@ -3827,10 +3824,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="D78" s="13">
         <v>16</v>
@@ -3853,10 +3850,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="13">
         <v>16</v>
@@ -3879,10 +3876,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D80" s="13">
         <v>14</v>
@@ -3905,10 +3902,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D81" s="13">
         <v>8</v>
@@ -3931,10 +3928,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="13">
         <v>2</v>
@@ -3957,10 +3954,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D83" s="13">
         <v>3</v>
@@ -3983,10 +3980,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D84" s="13">
         <v>5</v>
@@ -4009,10 +4006,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" s="13">
         <v>12</v>
@@ -4035,10 +4032,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="13">
         <v>4</v>
@@ -4061,10 +4058,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D87" s="13">
         <v>10</v>
@@ -4087,10 +4084,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="13">
         <v>5</v>
@@ -4113,10 +4110,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D89" s="13">
         <v>8</v>
@@ -4139,10 +4136,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D90" s="13">
         <v>10</v>
@@ -4165,10 +4162,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D91" s="13">
         <v>3</v>
@@ -4191,10 +4188,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D92" s="13">
         <v>16</v>
@@ -4217,10 +4214,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D93" s="13">
         <v>7</v>
@@ -4243,10 +4240,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D94" s="13">
         <v>11</v>
@@ -4269,10 +4266,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D95" s="13">
         <v>16</v>
@@ -4295,10 +4292,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D96" s="13">
         <v>3</v>
@@ -4321,10 +4318,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="D97" s="13">
         <v>2</v>
@@ -4347,10 +4344,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D98" s="13">
         <v>4</v>
@@ -4373,10 +4370,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D99" s="13">
         <v>2</v>
@@ -4399,10 +4396,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D100" s="13">
         <v>14</v>
@@ -4425,10 +4422,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="13">
         <v>11</v>
@@ -4451,10 +4448,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D102" s="13">
         <v>11</v>
@@ -4477,10 +4474,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D103" s="13">
         <v>8</v>
@@ -4503,10 +4500,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D104" s="13">
         <v>2</v>
@@ -4529,10 +4526,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" s="13">
         <v>4</v>
@@ -4555,10 +4552,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D106" s="13">
         <v>16</v>
@@ -4581,10 +4578,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="13">
         <v>6</v>
@@ -4607,10 +4604,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D108" s="13">
         <v>17</v>
@@ -4633,10 +4630,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D109" s="13">
         <v>17</v>
@@ -4659,10 +4656,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D110" s="13">
         <v>17</v>
@@ -4685,10 +4682,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D111" s="13">
         <v>5</v>
@@ -4711,10 +4708,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D112" s="13">
         <v>15</v>
@@ -4737,10 +4734,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D113" s="13">
         <v>11</v>
@@ -4763,10 +4760,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D114" s="13">
         <v>14</v>
@@ -4789,10 +4786,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" s="13">
         <v>2</v>
@@ -4815,10 +4812,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116" s="13">
         <v>11</v>
@@ -4841,10 +4838,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D117" s="13">
         <v>8</v>
@@ -4867,10 +4864,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D118" s="13">
         <v>4</v>
@@ -4893,10 +4890,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="D119" s="13">
         <v>14</v>
@@ -4919,10 +4916,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D120" s="13">
         <v>2</v>
@@ -4945,10 +4942,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D121" s="13">
         <v>17</v>
@@ -4971,10 +4968,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D122" s="13">
         <v>6</v>
@@ -4997,10 +4994,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D123" s="13">
         <v>11</v>
@@ -5023,10 +5020,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D124" s="13">
         <v>17</v>
@@ -5049,10 +5046,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D125" s="13">
         <v>14</v>
@@ -5075,10 +5072,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D126" s="13">
         <v>14</v>
@@ -5101,10 +5098,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D127" s="13">
         <v>3</v>
@@ -5127,10 +5124,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D128" s="13">
         <v>5</v>
@@ -5153,10 +5150,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D129" s="13">
         <v>17</v>
@@ -5179,10 +5176,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D130" s="13">
         <v>11</v>
@@ -5205,10 +5202,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D131" s="13">
         <v>4</v>
@@ -5231,10 +5228,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D132" s="13">
         <v>11</v>
@@ -5257,10 +5254,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D133" s="13">
         <v>16</v>
@@ -5283,10 +5280,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D134" s="13">
         <v>10</v>
@@ -5309,10 +5306,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>215</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>216</v>
       </c>
       <c r="D135" s="13">
         <v>10</v>
@@ -5335,10 +5332,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D136" s="13">
         <v>6</v>
@@ -5361,10 +5358,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D137" s="13">
         <v>14</v>
@@ -5387,10 +5384,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D138" s="13">
         <v>7</v>
@@ -5413,10 +5410,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D139" s="13">
         <v>6</v>
@@ -5439,10 +5436,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D140" s="13">
         <v>12</v>
@@ -5465,10 +5462,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D141" s="13">
         <v>3</v>
@@ -5491,10 +5488,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D142" s="13">
         <v>8</v>
@@ -5517,10 +5514,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D143" s="13">
         <v>14</v>
@@ -5543,10 +5540,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D144" s="13">
         <v>14</v>
@@ -5569,10 +5566,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D145" s="13">
         <v>12</v>
@@ -5595,10 +5592,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D146" s="13">
         <v>8</v>
@@ -5621,10 +5618,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D147" s="13">
         <v>5</v>
@@ -5647,10 +5644,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D148" s="13">
         <v>12</v>
@@ -5673,10 +5670,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D149" s="13">
         <v>16</v>
@@ -5699,10 +5696,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D150" s="13">
         <v>8</v>
@@ -5725,10 +5722,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D151" s="13">
         <v>2</v>
@@ -5751,10 +5748,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D152" s="13">
         <v>12</v>
@@ -5777,10 +5774,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D153" s="13">
         <v>6</v>
@@ -5803,10 +5800,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D154" s="13">
         <v>10</v>
@@ -5829,10 +5826,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D155" s="13">
         <v>14</v>
@@ -5855,10 +5852,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D156" s="13">
         <v>14</v>
@@ -5881,10 +5878,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D157" s="13">
         <v>3</v>
@@ -5907,10 +5904,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="D158" s="13">
         <v>14</v>
@@ -5933,10 +5930,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D159" s="13">
         <v>4</v>
@@ -5959,10 +5956,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D160" s="13">
         <v>11</v>
@@ -5985,10 +5982,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D161" s="13">
         <v>6</v>
@@ -6011,10 +6008,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D162" s="13">
         <v>5</v>
@@ -6037,10 +6034,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D163" s="13">
         <v>2</v>
@@ -6063,10 +6060,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D164" s="13">
         <v>12</v>
@@ -6089,10 +6086,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D165" s="13">
         <v>6</v>
@@ -6115,10 +6112,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D166" s="13">
         <v>2</v>
@@ -6141,10 +6138,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D167" s="13">
         <v>16</v>
@@ -6167,10 +6164,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D168" s="13">
         <v>14</v>
@@ -6193,10 +6190,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D169" s="13">
         <v>12</v>
@@ -6219,10 +6216,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D170" s="13">
         <v>11</v>
@@ -6245,10 +6242,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D171" s="13">
         <v>12</v>
@@ -6271,10 +6268,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D172" s="13">
         <v>14</v>
@@ -6297,10 +6294,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D173" s="13">
         <v>16</v>
@@ -6323,10 +6320,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D174" s="13">
         <v>17</v>
@@ -6349,10 +6346,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D175" s="13">
         <v>8</v>
@@ -6375,10 +6372,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D176" s="13">
         <v>10</v>
@@ -6401,10 +6398,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D177" s="13">
         <v>16</v>
@@ -6427,10 +6424,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D178" s="13">
         <v>16</v>
@@ -6453,10 +6450,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D179" s="13">
         <v>16</v>
@@ -6479,10 +6476,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="D180" s="13">
         <v>4</v>
@@ -6505,10 +6502,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D181" s="13">
         <v>14</v>
@@ -6531,10 +6528,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D182" s="13">
         <v>7</v>
@@ -6557,10 +6554,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D183" s="13">
         <v>8</v>
@@ -6583,10 +6580,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D184" s="13">
         <v>8</v>
@@ -6609,10 +6606,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D185" s="13">
         <v>17</v>
@@ -6635,10 +6632,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D186" s="13">
         <v>8</v>
@@ -6661,10 +6658,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D187" s="13">
         <v>10</v>
@@ -6687,10 +6684,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D188" s="13">
         <v>11</v>
@@ -6713,10 +6710,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D189" s="13">
         <v>16</v>
@@ -6739,10 +6736,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D190" s="13">
         <v>12</v>
@@ -6765,10 +6762,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D191" s="13">
         <v>5</v>
@@ -6791,10 +6788,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D192" s="13">
         <v>3</v>
@@ -6817,10 +6814,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D193" s="13">
         <v>10</v>
@@ -6843,10 +6840,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D194" s="13">
         <v>3</v>
@@ -6869,10 +6866,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D195" s="13">
         <v>11</v>
@@ -6895,10 +6892,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D196" s="13">
         <v>4</v>
@@ -6921,10 +6918,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D197" s="13">
         <v>15</v>
@@ -6947,10 +6944,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D198" s="13">
         <v>2</v>
@@ -6973,10 +6970,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="D199" s="13">
         <v>2</v>
@@ -6999,10 +6996,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D200" s="13">
         <v>10</v>
@@ -7025,10 +7022,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D201" s="13">
         <v>6</v>
@@ -7051,10 +7048,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D202" s="13">
         <v>8</v>
@@ -7077,10 +7074,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D203" s="13">
         <v>11</v>
@@ -7103,10 +7100,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D204" s="13">
         <v>14</v>
@@ -7129,10 +7126,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D205" s="13">
         <v>11</v>
@@ -7155,10 +7152,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D206" s="13">
         <v>12</v>
@@ -7181,10 +7178,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D207" s="13">
         <v>8</v>
@@ -7207,10 +7204,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D208" s="13">
         <v>8</v>
@@ -7233,10 +7230,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D209" s="13">
         <v>11</v>
@@ -7259,10 +7256,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D210" s="13">
         <v>8</v>
@@ -7285,10 +7282,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D211" s="13">
         <v>11</v>
@@ -7311,10 +7308,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D212" s="13">
         <v>17</v>
@@ -7337,10 +7334,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D213" s="13">
         <v>3</v>
@@ -7363,10 +7360,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D214" s="13">
         <v>10</v>
@@ -7389,10 +7386,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D215" s="13">
         <v>3</v>
@@ -7415,10 +7412,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D216" s="13">
         <v>11</v>
@@ -7441,10 +7438,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D217" s="13">
         <v>5</v>
@@ -7467,10 +7464,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D218" s="13">
         <v>14</v>
@@ -7493,10 +7490,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D219" s="13">
         <v>8</v>
@@ -7519,10 +7516,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D220" s="13">
         <v>16</v>
@@ -7545,10 +7542,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D221" s="13">
         <v>10</v>
@@ -7571,10 +7568,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D222" s="13">
         <v>12</v>
@@ -7597,10 +7594,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D223" s="13">
         <v>16</v>
@@ -7623,10 +7620,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D224" s="13">
         <v>16</v>
@@ -7649,10 +7646,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D225" s="13">
         <v>12</v>
@@ -7675,10 +7672,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D226" s="13">
         <v>2</v>
@@ -7701,10 +7698,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D227" s="13">
         <v>4</v>
@@ -7727,10 +7724,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D228" s="13">
         <v>14</v>
@@ -7753,10 +7750,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C229" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="D229" s="13">
         <v>12</v>
@@ -7779,10 +7776,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D230" s="13">
         <v>2</v>
@@ -7805,10 +7802,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D231" s="13">
         <v>11</v>
@@ -7831,10 +7828,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D232" s="13">
         <v>4</v>
@@ -7857,10 +7854,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D233" s="13">
         <v>3</v>
@@ -7883,10 +7880,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D234" s="13">
         <v>16</v>
@@ -7909,10 +7906,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D235" s="13">
         <v>10</v>
@@ -7935,10 +7932,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D236" s="13">
         <v>11</v>
@@ -7961,10 +7958,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D237" s="13">
         <v>4</v>
@@ -7987,10 +7984,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D238" s="13">
         <v>10</v>
@@ -8013,10 +8010,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D239" s="13">
         <v>17</v>
@@ -8039,10 +8036,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D240" s="13">
         <v>16</v>
@@ -8065,10 +8062,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D241" s="13">
         <v>17</v>
@@ -8091,10 +8088,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D242" s="13">
         <v>6</v>
@@ -8117,10 +8114,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D243" s="13">
         <v>15</v>
@@ -8143,10 +8140,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D244" s="13">
         <v>2</v>
@@ -8169,10 +8166,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D245" s="13">
         <v>8</v>
@@ -8195,10 +8192,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D246" s="13">
         <v>14</v>
@@ -8221,10 +8218,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D247" s="13">
         <v>10</v>
@@ -8247,10 +8244,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D248" s="13">
         <v>5</v>
@@ -8273,10 +8270,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C249" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="C249" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="D249" s="13">
         <v>14</v>
@@ -8299,10 +8296,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D250" s="13">
         <v>11</v>
@@ -8325,10 +8322,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D251" s="13">
         <v>12</v>
@@ -8351,10 +8348,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D252" s="13">
         <v>2</v>
@@ -8377,10 +8374,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D253" s="13">
         <v>14</v>
@@ -8403,10 +8400,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D254" s="13">
         <v>5</v>
@@ -8429,10 +8426,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D255" s="13">
         <v>14</v>
@@ -8455,10 +8452,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D256" s="13">
         <v>5</v>
@@ -8481,10 +8478,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D257" s="13">
         <v>2</v>
@@ -8507,10 +8504,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D258" s="13">
         <v>14</v>
@@ -8533,10 +8530,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D259" s="13">
         <v>10</v>
@@ -8559,10 +8556,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D260" s="13">
         <v>11</v>
@@ -8585,10 +8582,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D261" s="13">
         <v>16</v>
@@ -8611,10 +8608,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D262" s="13">
         <v>14</v>
@@ -8637,10 +8634,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D263" s="13">
         <v>2</v>
@@ -8663,10 +8660,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D264" s="13">
         <v>4</v>
@@ -8689,10 +8686,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D265" s="13">
         <v>2</v>
@@ -8715,10 +8712,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D266" s="13">
         <v>6</v>
@@ -8741,10 +8738,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D267" s="13">
         <v>11</v>
@@ -8767,10 +8764,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D268" s="13">
         <v>11</v>
@@ -8793,10 +8790,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D269" s="13">
         <v>14</v>
@@ -8819,10 +8816,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D270" s="13">
         <v>12</v>
@@ -8845,10 +8842,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D271" s="13">
         <v>3</v>
@@ -8871,10 +8868,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D272" s="13">
         <v>14</v>
@@ -8897,10 +8894,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D273" s="13">
         <v>14</v>
@@ -8923,10 +8920,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D274" s="13">
         <v>10</v>
@@ -8949,10 +8946,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D275" s="13">
         <v>6</v>
@@ -8975,10 +8972,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D276" s="13">
         <v>11</v>
@@ -9001,10 +8998,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D277" s="13">
         <v>14</v>
@@ -9027,10 +9024,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D278" s="13">
         <v>10</v>
@@ -9053,10 +9050,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D279" s="13">
         <v>10</v>
@@ -9079,10 +9076,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C280" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="C280" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="D280" s="13">
         <v>16</v>
@@ -9105,10 +9102,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D281" s="13">
         <v>12</v>
@@ -9131,10 +9128,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D282" s="13">
         <v>11</v>
@@ -9157,10 +9154,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D283" s="13">
         <v>6</v>
@@ -9183,10 +9180,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D284" s="13">
         <v>2</v>
@@ -9209,10 +9206,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D285" s="13">
         <v>3</v>
@@ -9235,10 +9232,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D286" s="13">
         <v>6</v>
@@ -9261,10 +9258,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D287" s="13">
         <v>5</v>
@@ -9287,10 +9284,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C288" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="D288" s="13">
         <v>8</v>
@@ -9313,10 +9310,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D289" s="13">
         <v>8</v>
@@ -9339,10 +9336,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C290" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="D290" s="13">
         <v>14</v>
@@ -9365,10 +9362,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D291" s="13">
         <v>11</v>
@@ -9391,10 +9388,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D292" s="13">
         <v>11</v>
@@ -9417,10 +9414,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D293" s="13">
         <v>12</v>
@@ -9443,10 +9440,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D294" s="13">
         <v>3</v>
@@ -9469,10 +9466,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D295" s="13">
         <v>6</v>
@@ -9495,10 +9492,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C296" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="C296" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="D296" s="13">
         <v>17</v>
@@ -9521,10 +9518,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D297" s="13">
         <v>11</v>
@@ -9547,10 +9544,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D298" s="13">
         <v>17</v>
@@ -9573,10 +9570,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D299" s="13">
         <v>5</v>
@@ -9599,10 +9596,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D300" s="13">
         <v>14</v>
@@ -9625,10 +9622,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C301" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="C301" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="D301" s="13">
         <v>14</v>
@@ -9651,10 +9648,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D302" s="13">
         <v>2</v>
@@ -9677,10 +9674,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D303" s="13">
         <v>16</v>
@@ -9703,10 +9700,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D304" s="13">
         <v>14</v>
@@ -9729,10 +9726,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D305" s="13">
         <v>8</v>
@@ -9755,10 +9752,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C306" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="C306" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="D306" s="13">
         <v>3</v>
@@ -9781,10 +9778,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C307" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="C307" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="D307" s="13">
         <v>14</v>
@@ -9807,10 +9804,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D308" s="13">
         <v>8</v>
@@ -9833,10 +9830,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C309" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="C309" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="D309" s="13">
         <v>12</v>
@@ -9859,10 +9856,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D310" s="13">
         <v>5</v>
@@ -9885,10 +9882,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D311" s="13">
         <v>8</v>
@@ -10144,9 +10141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10171,20 +10168,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>32</v>
+      <c r="C2" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10192,61 +10189,61 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -10255,16 +10252,16 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -10273,17 +10270,17 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>33</v>
+      <c r="B14" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>20</v>
@@ -10291,17 +10288,17 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>33</v>
+      <c r="B16" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
@@ -10309,34 +10306,34 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>9</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="19" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>9</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>10</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -10345,7 +10342,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
@@ -10354,7 +10351,7 @@
       <c r="A22" s="21">
         <v>11</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -10363,16 +10360,16 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>12</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -10381,134 +10378,142 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>13</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>13</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>14</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="19" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>14</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>15</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>33</v>
+      <c r="B30" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>16</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
-        <v>16</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="24" t="s">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>17</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="25" t="s">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
-        <v>17</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="22"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22"/>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
+      <c r="A42" s="22"/>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A36:A37"/>
@@ -10525,21 +10530,13 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10575,16 +10572,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10592,13 +10589,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -10609,13 +10606,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -10626,16 +10623,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Lab2/Lab2_Uzduotys.xlsx
+++ b/Lab2/Lab2_Uzduotys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Java_laboratoriniai\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\Java_laboratoriniai\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADCED9E-AC1E-462C-B843-0F592D76770B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74C4DC-007A-4A15-86E7-BF4EEF4EA069}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="399">
   <si>
     <t>boolean</t>
   </si>
@@ -1213,6 +1213,12 @@
   </si>
   <si>
     <t>Daunoravičius Tautvydas</t>
+  </si>
+  <si>
+    <t>16.17.14</t>
+  </si>
+  <si>
+    <t>subSet(E fromElement, boolean fromInclusive, E toElement, boolean toInclusive)</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,6 +1328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,24 +1388,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1401,9 +1400,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1746,23 +1758,23 @@
   <dimension ref="A1:P354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="28" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="12" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="13"/>
-    <col min="7" max="7" width="9.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="13"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="12" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="9.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="13"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1849,7 +1861,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1884,7 +1896,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1919,7 +1931,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1952,7 +1964,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1987,7 +1999,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2045,7 +2057,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>10</v>
       </c>
@@ -2077,7 +2089,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2103,7 +2115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2155,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2389,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2623,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -2883,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2909,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2935,7 +2947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2987,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -3195,7 +3207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -3221,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -3403,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -3481,7 +3493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -3559,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -3585,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -3611,7 +3623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -3663,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -3741,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -3819,7 +3831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -3871,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -3923,7 +3935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -3949,7 +3961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -3975,7 +3987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -4079,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -4183,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -4235,7 +4247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -4261,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -4287,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -4313,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -4339,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -4365,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -4391,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -4469,7 +4481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -4495,7 +4507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -4547,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -4599,7 +4611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -4625,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -4703,7 +4715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -4729,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -4755,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -4833,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -4859,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -4989,7 +5001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -5015,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -5093,7 +5105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -5171,7 +5183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -5223,7 +5235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -5249,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -5275,7 +5287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -5301,7 +5313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -5379,7 +5391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -5431,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -5457,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -5483,7 +5495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -5509,7 +5521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -5535,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -5561,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -5587,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -5613,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -5639,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -5717,7 +5729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -5743,7 +5755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -5821,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -5873,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -5899,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -5925,7 +5937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -5951,7 +5963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -5977,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -6003,7 +6015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
         <v>161</v>
       </c>
@@ -6029,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -6055,7 +6067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>163</v>
       </c>
@@ -6081,7 +6093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>165</v>
       </c>
@@ -6133,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -6159,7 +6171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -6185,7 +6197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -6211,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="13">
         <v>169</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="13">
         <v>170</v>
       </c>
@@ -6263,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>171</v>
       </c>
@@ -6289,7 +6301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -6315,7 +6327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -6393,7 +6405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>176</v>
       </c>
@@ -6419,7 +6431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="13">
         <v>177</v>
       </c>
@@ -6445,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -6471,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -6497,7 +6509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -6523,7 +6535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -6549,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -6575,7 +6587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -6601,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -6627,7 +6639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -6653,7 +6665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -6679,7 +6691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -6705,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -6731,7 +6743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -6757,7 +6769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -6783,7 +6795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -6809,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -6861,7 +6873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -6887,7 +6899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -6913,7 +6925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -6965,7 +6977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -6991,7 +7003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -7017,7 +7029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -7043,7 +7055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -7069,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="13">
         <v>203</v>
       </c>
@@ -7121,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
         <v>204</v>
       </c>
@@ -7147,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
         <v>205</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -7199,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -7225,7 +7237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -7251,7 +7263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -7277,7 +7289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
         <v>210</v>
       </c>
@@ -7303,7 +7315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="13">
         <v>211</v>
       </c>
@@ -7329,7 +7341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="13">
         <v>212</v>
       </c>
@@ -7355,7 +7367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="13">
         <v>213</v>
       </c>
@@ -7381,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="13">
         <v>214</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="13">
         <v>215</v>
       </c>
@@ -7433,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
         <v>216</v>
       </c>
@@ -7459,7 +7471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
         <v>217</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
         <v>218</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
         <v>219</v>
       </c>
@@ -7537,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
         <v>220</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
         <v>221</v>
       </c>
@@ -7589,7 +7601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
         <v>222</v>
       </c>
@@ -7615,7 +7627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
         <v>223</v>
       </c>
@@ -7641,7 +7653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="13">
         <v>224</v>
       </c>
@@ -7667,7 +7679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -7693,7 +7705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -7719,7 +7731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -7745,7 +7757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -7771,7 +7783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -7797,7 +7809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -7823,7 +7835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -7849,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -7901,7 +7913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="13">
         <v>234</v>
       </c>
@@ -7927,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="13">
         <v>235</v>
       </c>
@@ -7953,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="13">
         <v>236</v>
       </c>
@@ -7979,7 +7991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="13">
         <v>237</v>
       </c>
@@ -8005,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="13">
         <v>238</v>
       </c>
@@ -8031,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="13">
         <v>239</v>
       </c>
@@ -8057,7 +8069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="13">
         <v>240</v>
       </c>
@@ -8083,7 +8095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="13">
         <v>241</v>
       </c>
@@ -8109,7 +8121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="13">
         <v>242</v>
       </c>
@@ -8135,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="13">
         <v>243</v>
       </c>
@@ -8161,7 +8173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="13">
         <v>244</v>
       </c>
@@ -8187,7 +8199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="13">
         <v>245</v>
       </c>
@@ -8213,7 +8225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="13">
         <v>246</v>
       </c>
@@ -8239,7 +8251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="13">
         <v>247</v>
       </c>
@@ -8265,7 +8277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="13">
         <v>248</v>
       </c>
@@ -8291,7 +8303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="13">
         <v>249</v>
       </c>
@@ -8317,7 +8329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="13">
         <v>250</v>
       </c>
@@ -8343,7 +8355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="13">
         <v>251</v>
       </c>
@@ -8369,7 +8381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="13">
         <v>252</v>
       </c>
@@ -8395,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="13">
         <v>253</v>
       </c>
@@ -8421,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="13">
         <v>254</v>
       </c>
@@ -8447,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -8473,7 +8485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -8499,7 +8511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -8525,7 +8537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -8551,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -8577,7 +8589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="13">
         <v>260</v>
       </c>
@@ -8603,7 +8615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="13">
         <v>261</v>
       </c>
@@ -8629,7 +8641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -8655,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -8681,7 +8693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -8707,7 +8719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -8733,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -8759,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -8785,7 +8797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="13">
         <v>268</v>
       </c>
@@ -8811,7 +8823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="13">
         <v>269</v>
       </c>
@@ -8837,7 +8849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="13">
         <v>270</v>
       </c>
@@ -8863,7 +8875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="13">
         <v>271</v>
       </c>
@@ -8889,7 +8901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="13">
         <v>272</v>
       </c>
@@ -8915,7 +8927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="13">
         <v>273</v>
       </c>
@@ -8941,7 +8953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -8967,7 +8979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="13">
         <v>275</v>
       </c>
@@ -8993,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -9019,7 +9031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="13">
         <v>277</v>
       </c>
@@ -9045,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="13">
         <v>278</v>
       </c>
@@ -9071,7 +9083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="13">
         <v>279</v>
       </c>
@@ -9097,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="13">
         <v>280</v>
       </c>
@@ -9123,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="13">
         <v>281</v>
       </c>
@@ -9149,7 +9161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -9175,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -9201,7 +9213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="13">
         <v>284</v>
       </c>
@@ -9227,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -9253,7 +9265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -9279,7 +9291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="13">
         <v>287</v>
       </c>
@@ -9305,7 +9317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -9331,7 +9343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -9357,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -9383,7 +9395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -9409,7 +9421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -9435,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -9461,7 +9473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -9487,7 +9499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="13">
         <v>295</v>
       </c>
@@ -9513,7 +9525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="13">
         <v>296</v>
       </c>
@@ -9539,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="13">
         <v>297</v>
       </c>
@@ -9565,7 +9577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -9591,7 +9603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -9617,7 +9629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -9643,7 +9655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -9669,7 +9681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -9695,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -9721,7 +9733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -9747,7 +9759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -9773,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -9799,7 +9811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -9825,7 +9837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -9851,7 +9863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -9877,7 +9889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -9903,225 +9915,225 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="13">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="13">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="13">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="13">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="13">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="13">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="13">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="13">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="13">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="13">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="13">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="13">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="13">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="13">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="13">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="13">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="13">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="13">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="13">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="13">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="13">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="13">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="13">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="13">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="13">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="13">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="13">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="13">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="13">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="13">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="13">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="13">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="13">
         <v>349</v>
       </c>
       <c r="B350" s="14"/>
       <c r="C350" s="14"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="13">
         <v>350</v>
       </c>
       <c r="B351" s="14"/>
       <c r="C351" s="14"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="13">
         <v>351</v>
       </c>
       <c r="B352" s="14"/>
       <c r="C352" s="14"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="13">
         <v>352</v>
       </c>
       <c r="B353" s="14"/>
       <c r="C353" s="14"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="13">
         <v>353</v>
       </c>
@@ -10139,24 +10151,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B15"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="133.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="133.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -10167,335 +10179,338 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="19" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="26"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>4</v>
-      </c>
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>7</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="26"/>
+      <c r="E16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>9</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>10</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>11</v>
-      </c>
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <v>13</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="19" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <v>14</v>
-      </c>
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>14</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="19" t="s">
+      <c r="C28" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>15</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="9" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <v>16</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="19" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <v>17</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -10551,15 +10566,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -10567,7 +10582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -10584,7 +10599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -10601,7 +10616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -10618,7 +10633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
